--- a/QuantLibAddin/swig/AddinXl/AddinXl.xlsx
+++ b/QuantLibAddin/swig/AddinXl/AddinXl.xlsx
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="b">
-        <f>_xll.qlClose(1,2)</f>
+        <f>_xll.qlclose(1,2)</f>
         <v>0</v>
       </c>
     </row>
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>_xll.qlSimpleQuoteValue(B2)</f>
+        <f>_xll.qlSimpleQuotevalue(B2)</f>
         <v>1.234</v>
       </c>
     </row>
